--- a/plantillas/consulta/Mesas_CSC.xlsx
+++ b/plantillas/consulta/Mesas_CSC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2161E5AE-C06C-4166-87A4-2E2F6BD2FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E89BBD6-CE02-4362-A7B5-9C9B9D9AC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fecha:</t>
   </si>
@@ -36,16 +36,13 @@
     <t>Nombre de la Unidad Territorial</t>
   </si>
   <si>
-    <t>FORMATO X</t>
-  </si>
-  <si>
     <t>Distrito</t>
   </si>
   <si>
     <t>Clave de la UT</t>
   </si>
   <si>
-    <t>MRO</t>
+    <t>MRVyO</t>
   </si>
 </sst>
 </file>
@@ -512,10 +509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,12 +529,12 @@
       <c r="C2" s="15"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -547,7 +544,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -559,43 +556,41 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
+      <c r="D7" s="6"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="D8" s="9" t="s">
+        <v>0</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D9" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>7</v>
+      <c r="E11" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
